--- a/Tableau_Fusionné.xlsx
+++ b/Tableau_Fusionné.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E56"/>
+  <dimension ref="A1:G52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,22 +441,32 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Famille de molécule</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Détails produit</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Surveillance</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Indications</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Posologie</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Fiche</t>
         </is>
       </c>
     </row>
@@ -468,24 +478,31 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>• Désignation produit : LUTATHERA 370 MBQ/ML SOL INJ FL 30ML (TAA)
+          <t>Hors TAA</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>• Famille médicament : Hors TAA
+• Désignation produit : LUTATHERA 370 MBQ/ML SOL INJ FL 30ML (TAA)
 • Désignation Service : LUTATHERA 370 MBQ/ML SOL INJ FL 30ML (TAA)
 • code GEF : 229825K
-• retrocedable : non
-• Conservation  selon RCP : 17</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>• Bilan rénal</t>
+• Rétrocédable : Non
+• Conservation selon PUI : &lt;25°C</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>• Fonction rénale</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>• traitement des tumeurs neuroendocrines intestinales, inopérables ou métastatiques, progressives, bien différenciées (G1 et G2) et exprimant des récepteurs de somatostatine chez les adultes (Hors AMM)</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -495,22 +512,28 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>• Désignation produit : ORENCIA 250MG PDR INJ FL (TAA)
+          <t>Hors TAA</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>• Famille médicament : Hors TAA
+• Désignation produit : ORENCIA 250MG PDR INJ FL (TAA)
 • Désignation Service : ABATACEPT 250MG INJ (TAA) *TD*
 • code Fournisseur : 1164P
 • nom Fournisseur : BRISTOL MYERS SQUIBB
 • code GEF : 066542D
-• retrocedable : non
-• Conservation  selon RCP : 2</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
+• Rétrocédable : Non
+• Conservation selon PUI : 2°C à 8°C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>• NFS
 • NFS</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>• Rétinochoroïdite Birdshot (Groupe 3)
 • Lupus Articulaire (Groupe 3)
@@ -524,13 +547,14 @@
 •  Traitement seul ou en association avec le méthotrexate (MTX) du rhumatisme psoriasique actif chez l'adulte lorsque la réponse à un traitement DMARDs antérieur incluant le MTX a été inadéquate, et pour lequel une thérapie systémique additionnelle pour les lésions cutanées psoriasiques n'est pas requise (Hors AMM)</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>• 1g/j
-• 500mg/j
-• 100mg/j</t>
-        </is>
-      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>• &lt;60 kg : 500mg
+• &gt;60 kg à &lt;100 kg : 750mg
+• &gt;100 kg : 1000mg</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -540,18 +564,25 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>• Désignation produit : REPLAGAL 1MG/ML SOL INJ FL 3,5ML (TAA)
+          <t>Hors TAA</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>• Famille médicament : Hors TAA
+• Désignation produit : REPLAGAL 1MG/ML SOL INJ FL 3,5ML (TAA)
 • Désignation Service : AGALSIDASE ALPHA 1MG/ML INJ (TAA)
 • code Fournisseur : 2194K
 • nom Fournisseur : C.S.P.
 • code GEF : 200925X
-• retrocedable : oui
-• Conservation  selon RCP : 0</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr"/>
+• Rétrocédable : Oui
+• Conservation selon PUI : 2°C à 8°C</t>
+        </is>
+      </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -561,59 +592,51 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>• Désignation produit : FABRAZYME 35MG PDR INJ (TAA)
+          <t>Hors TAA</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>• Famille médicament : Hors TAA
+• Désignation produit : FABRAZYME 35MG PDR INJ (TAA)
 • Désignation Service : AGALSIDASE BETA 35MG INJ (TAA) *
 • code Fournisseur : 34079S
 • nom Fournisseur : SANOFI WINTHROP INDUSTRIE
 • code GEF : 066186R
-• retrocedable : oui
-• Conservation  selon RCP : 0</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr"/>
+• Rétrocédable : Oui
+• Conservation selon PUI : 2°C à 8°C</t>
+        </is>
+      </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>alglucosidase alfa</t>
+          <t>amphotericine b</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>• Désignation produit : MYOZYME 50MG PDR INJ (TAA)
-• Désignation Service : MYOZYME 50MG ALPHA GLUCOSIDASE HUMAINE (TAA)
-• code Fournisseur : 34079S
-• nom Fournisseur : SANOFI WINTHROP INDUSTRIE
-• code GEF : 066538Z
-• retrocedable : oui
-• Conservation  selon RCP : 0</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>amphotericine b</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>• Désignation produit : AMBISOME 50MG PDR INJ FL 15ML (TAA)
+          <t>Hors TAA</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>• Famille médicament : Hors TAA
+• Désignation produit : AMBISOME 50MG PDR INJ FL 15ML (TAA)
 • Désignation Service : AMPHOTERICINE B LIPOSOMALE 50 MG INJ *TD (TAA)
 • code Fournisseur : 6503T
 • nom Fournisseur : GILEAD SCIENCES
 • code GEF : 066392P
-• retrocedable : true
-• Conservation  selon RCP : 2</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr">
+• Rétrocédable : Oui
+• Conservation selon PUI : 2°C à 8°C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
         <is>
           <t>• 3Sem (Groupe 3)
 • Geotrichum Capitatum (Groupe 3)
@@ -623,313 +646,336 @@
 • Spondilodiscite (Groupe 3)</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
         <is>
           <t>anifrolumab</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>• Désignation produit : SAPHNELO 300MG SOL INJ FL (TAA)
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Hors TAA</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>• Famille médicament : Hors TAA
+• Désignation produit : SAPHNELO 300MG SOL INJ FL (TAA)
 • Désignation Service : ANIFROLUMAB 300MG SOL INJ FL (TAA)
 • code Fournisseur : 9269A
 • nom Fournisseur : ASTRAZENECA
 • code GEF : 072205J
-• retrocedable : non
-• Conservation  selon RCP : 0</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr">
+• Rétrocédable : Non
+• Conservation selon PUI : 2°C à 8°C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
         <is>
           <t>• Maladie De Degos (Groupe 3)</t>
         </is>
       </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>aztréonam,avibactam sodique</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Anti infectieux</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>• Famille médicament : Anti infectieux
+• Désignation produit : Emblaveo</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>atezolizumab</t>
+          <t>belatacept</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>• Désignation produit : TECENTRIQ 1.2 G/20 ML, INJ (TAA)
-• Désignation Service : TECENTRIQ 1.2 G/20 ML, INJ (TAA)
-• code Fournisseur : 7590A
-• nom Fournisseur : ROCHE
-• code GEF : 071278B
-• retrocedable : non
-• Conservation  selon RCP : 0</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>avelumab</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>• Désignation produit : BAVENCIO 20MG/ML SOL INJ FL (TAA)
-• Désignation Service : AVELUMAB 20MG/ML SOL INJ FL (TAA)
-• code Fournisseur : 5687G
-• nom Fournisseur : MERCK SERONO
-• code GEF : 070904V
-• retrocedable : non
-• Conservation  selon RCP : 0</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>azacitidine</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>• Désignation produit : VIDAZA 100MG PDR INJ FL
-• Désignation Service : VIDAZA 100MG INJ (TAA) *
-• code GEF : 200037G
-• retrocedable : non
-• Conservation  selon RCP : 0</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>belatacept</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>• Désignation produit : NULOJIX 250MG PDR INJ FL (TAA)
+          <t>Hors TAA</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>• Famille médicament : Hors TAA
+• Désignation produit : NULOJIX 250MG PDR INJ FL (TAA)
 • Désignation Service : BELATACEPT 250MG PDR INJ FL (TAA)
 • code Fournisseur : 1164P
 • nom Fournisseur : BRISTOL MYERS SQUIBB
 • code GEF : 071326D
-• retrocedable : oui
-• Conservation  selon RCP : 0</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr">
+• Rétrocédable : Oui
+• Conservation selon PUI : 2°C à 8°C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
         <is>
           <t>• Tacrolimus Toxicité Transplant Rénale (Groupe 3)</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>• nan</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
         <is>
           <t>belimumab</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Hors TAA</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
         <is>
           <t xml:space="preserve">	Produit 1 :
+• Famille médicament : Hors TAA
 • Désignation produit : BENLYSTA 120MG PDR INJ FL (TAA)
 • Désignation Service : BELIMUMAB 120MG PDR INJ FL (TAA)
 • code Fournisseur : 4302B
 • nom Fournisseur : LABORATOIRE GLAXOSMITHKLINE
 • code GEF : 069241M
-• retrocedable : non
-• Conservation  selon RCP : 0
+• Rétrocédable : Non
+• Conservation selon PUI : 2°C à 8°C
 	Produit 2 :
+• Famille médicament : Hors TAA
 • Désignation produit : BENLYSTA 400MG PDR INJ FL (TAA)
 • Désignation Service : BELIMUMAB 400MG PDR INJ FL (TAA)
 • code Fournisseur : 4302B
 • nom Fournisseur : LABORATOIRE GLAXOSMITHKLINE
 • code GEF : 069242N
-• retrocedable : non
-• Conservation  selon RCP : 0</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+• Rétrocédable : Non
+• Conservation selon PUI : 2°C à 8°C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
         <is>
           <t>bezlotoxumab</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>• Désignation produit : ZINPLAVA 1 000 MG/40 ML INJ (TAA)
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Hors TAA</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>• Famille médicament : Hors TAA
+• Désignation produit : ZINPLAVA 1 000 MG/40 ML INJ (TAA)
 • Désignation Service : BEZLOTUXUMAB 1 000 MG/40 ML INJ (TAA)
 • code Fournisseur : 51667K
 • nom Fournisseur : MSD FRANCE
 • code GEF : 071385S
-• retrocedable : non
-• Conservation  selon RCP : 0</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+• Rétrocédable : Non
+• Conservation selon PUI : 2°C à 8°C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
         <is>
           <t>carglumique acide</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>• Désignation produit : UCEDANE 200 MG, CPR DISPERSIBLE (TAA)
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Hors TAA</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>• Famille médicament : Hors TAA
+• Désignation produit : UCEDANE 200 MG, CPR DISPERSIBLE (TAA)
 • Désignation Service : ACIDE CARGLUMIQUE 200 MG, CPR DISPERSIBLE (TAA)
 • code Fournisseur : 28313A
 • nom Fournisseur : EURODEP
 • code GEF : 072468V
-• retrocedable : true
-• Conservation  selon RCP : 2</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+• Rétrocédable : Oui
+• Conservation selon PUI : &lt;25°C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
         <is>
           <t>carmustine</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>• Désignation produit : GLIADEL 7,7MG IMPLANT (TAA)
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Hors TAA</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>• Famille médicament : Hors TAA
+• Désignation produit : GLIADEL 7,7MG IMPLANT (TAA)
 • Désignation Service : CARMUSTINE 7.7MG IMPLANT (CONGELATEUR) (TAA)
 • code Fournisseur : 28313A
 • nom Fournisseur : EURODEP
 • code GEF : 066269G
-• retrocedable : non
-• Conservation  selon RCP : 0</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+• Rétrocédable : Non
+• Conservation selon PUI : Congélo -20°C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
         <is>
           <t>cefiderocol sulfate tosylate</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>• Désignation produit : FETCROJA 1G PDR INJ FL (TAA)
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Hors TAA</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>• Famille médicament : Hors TAA
+• Désignation produit : FETCROJA 1G PDR INJ FL (TAA)
 • Désignation Service : CEFIDEROCOL 1G PDR INJ FL (TAA)
 • code Fournisseur : 2194K
 • nom Fournisseur : C.S.P.
 • code GEF : 071851Z
-• retrocedable : non
-• Conservation  selon RCP : 0</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+• Rétrocédable : Non
+• Conservation selon PUI : 2°C à 8°C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
         <is>
           <t>ceftazidime pentahydrate,avibactam sodique</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>• Désignation produit : ZAVICEFTA 2 G/0.5 G, PDR PR SOL A DILUER PR PERF (TAA)
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Hors TAA</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>• Famille médicament : Hors TAA
+• Désignation produit : ZAVICEFTA 2 G/0.5 G, PDR PR SOL A DILUER PR PERF (TAA)
 • Désignation Service : CEFTAZIDIME/AVIBACTAM 2 G/0.5 G, PDR PR SOL A DILUER PR PERF (TAA)
 • code Fournisseur : 6942W
 • nom Fournisseur : PFIZER SAS
 • code GEF : 070636D
-• retrocedable : non
-• Conservation  selon RCP : 2</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>cemiplimab</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>• Désignation produit : LIBTAYO 350 MG/7 ML, SOL INJ (TAA)
-• Désignation Service : CEMIPLIMAB 350 MG/7 ML, SOL INJ (TAA)
-• code GEF : 071252Y
-• retrocedable : non
-• Conservation  selon RCP : 0</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+• Rétrocédable : Non
+• Conservation selon PUI : 2°C à 8°C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>cerliponase alfa</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>• Désignation produit : BRINEURA 150 MG/5 ML SOL PR PERF INJ (TAA)
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Hors TAA</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>• Famille médicament : Hors TAA
+• Désignation produit : BRINEURA 150 MG/5 ML SOL PR PERF INJ (TAA)
 • Désignation Service : CERLIPONASE ALFA 150 MG/5 ML, INJ (TAA)
 • code Fournisseur : 28972R
 • nom Fournisseur : HEALTHCARE AT HOME NETHERLANDS BV
 • code GEF : 071258E
-• retrocedable : non
-• Conservation  selon RCP : 2</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
+• Rétrocédable : Non
+• Conservation selon PUI : Congélo -20°C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
         <is>
           <t>eculizumab</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>• Désignation produit : EPYSQLI 300MG/30ML SOL INJ FL 30ML (TAA)
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Hors TAA</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>• Famille médicament : Hors TAA
+• Désignation produit : EPYSQLI 300MG/30ML SOL INJ FL 30ML (TAA)
 • Désignation Service : ECULIZUMAB (EPYSQLI) 300MG/30ML SOL INJ FL 30ML (TAA)
 • code Fournisseur : 36011S
 • nom Fournisseur : SAMSUNG BIOEPIS
 • code GEF : 072980B
-• retrocedable : non
-• Conservation  selon RCP : 2</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr">
+• Rétrocédable : Non
+• Conservation selon PUI : 2°C à 8°C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>• contraception efficace
+• vaccin méningocoques
+• ci si infection à N.meningitidis</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
         <is>
           <t>• Drepanocytose (Groupe 3)
 • Glomérulonéphrite (Groupe 3)
@@ -940,296 +986,386 @@
 • Prevention Récidive Shu Greffon Ou Glomerulonéphrite À C3 (Groupe 3)</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
         <is>
           <t>efgartigimod alfa</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Hors TAA</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
         <is>
           <t xml:space="preserve">	Produit 1 :
+• Famille médicament : Hors TAA
 • Désignation produit : VYVGART 1000MG SOL INJ FL (SC) (TAA)
 • Désignation Service : EFGARTIGIMOD 1000MG SOL INJ FL (SC) (TAA)
 • code Fournisseur : 33503R
 • nom Fournisseur : ARGENX FRANCE
 • code GEF : 073135V
-• retrocedable : non
-• Conservation  selon RCP : 0
+• Rétrocédable : Non
+• Conservation selon PUI : 2°C à 8°C
 	Produit 2 :
+• Famille médicament : Hors TAA
 • Désignation produit : VYVGART 20MG/ML SOL INJ FL (TAA)
 • Désignation Service : EFGARTIGIMOD 20MG/ML SOL INJ FL (TAA)
 • code Fournisseur : 33503R
 • nom Fournisseur : ARGENX FRANCE
 • code GEF : 072160K
-• retrocedable : non
-• Conservation  selon RCP : 0</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+• Rétrocédable : Non
+• Conservation selon PUI : 2°C à 8°C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
         <is>
           <t>emicizumab</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Hors TAA</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
         <is>
           <t xml:space="preserve">	Produit 1 :
+• Famille médicament : Hors TAA
 • Désignation produit : HEMLIBRA 105 MG/0.7 ML, SOL INJ, FLAC (TAA)
 • Désignation Service : EMICIZUMAB 105 MG/0.7 ML, SOL INJ, FLAC (TAA)
 • code Fournisseur : 7590A
 • nom Fournisseur : ROCHE
 • code GEF : 071220N
-• retrocedable : oui
-• Conservation  selon RCP : 0
+• Rétrocédable : Oui
+• Conservation selon PUI : &lt;25°C
 	Produit 2 :
+• Famille médicament : Hors TAA
 • Désignation produit : HEMLIBRA 12MG/0.4ML SOL INJ FL (TAA)
 • Désignation Service : EMICIZUMAB 12MG/0.4ML SOL INJ FL (TAA)
 • code Fournisseur : 7590A
 • nom Fournisseur : ROCHE
 • code GEF : 073198N
-• retrocedable : oui
-• Conservation  selon RCP : 0
+• Rétrocédable : Oui
+• Conservation selon PUI : &lt;25°C
 	Produit 3 :
+• Famille médicament : Hors TAA
 • Désignation produit : HEMLIBRA 150MG/1ML SOL INJ FL  (TAA)
 • Désignation Service : EMICIZUMAB 150MG/1ML SOL INJ FL (TAA)
 • code Fournisseur : 7590A
 • nom Fournisseur : ROCHE
 • code GEF : 071107P
-• retrocedable : oui
-• Conservation  selon RCP : 0
+• Rétrocédable : Oui
+• Conservation selon PUI : &lt;25°C
 	Produit 4 :
+• Famille médicament : Hors TAA
 • Désignation produit : HEMLIBRA 300MG/2ML SOL INJ FL (TAA)
 • Désignation Service : EMICIZUMAB 300MG/2ML SOL INJ FL (TAA)
 • code Fournisseur : 7590A
 • nom Fournisseur : ROCHE
 • code GEF : 073197M
-• retrocedable : oui
-• Conservation  selon RCP : 0
+• Rétrocédable : Oui
+• Conservation selon PUI : &lt;25°C
 	Produit 5 :
+• Famille médicament : Hors TAA
 • Désignation produit : HEMLIBRA 30MG/ML SOL INJ FL 1ML (TAA)
 • Désignation Service : EMICIZUMAB 30MG/ML SOL INJ FL 1ML (TAA)
 • code Fournisseur : 7590A
 • nom Fournisseur : ROCHE
 • code GEF : 071106O
-• retrocedable : oui
-• Conservation  selon RCP : 0
+• Rétrocédable : Oui
+• Conservation selon PUI : &lt;25°C
 	Produit 6 :
+• Famille médicament : Hors TAA
 • Désignation produit : HEMLIBRA 60 MG/0.4 ML, SOL INJ, FLAC (TAA)
 • Désignation Service : EMICIZUMAB 60 MG/0.4 ML, SOL INJ, FLAC (TAA)
 • code Fournisseur : 7590A
 • nom Fournisseur : ROCHE
 • code GEF : 071219M
-• retrocedable : oui
-• Conservation  selon RCP : 0</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+• Rétrocédable : Oui
+• Conservation selon PUI : &lt;25°C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>galsulfase</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>• Désignation produit : NAGLAZYME 1MG/ML SOL INJ FL 5ML (TAA)
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Hors TAA</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>• Famille médicament : Hors TAA
+• Désignation produit : NAGLAZYME 1MG/ML SOL INJ FL 5ML (TAA)
 • Désignation Service : GALSULFASE 5MG/5ML SOL INJ (TAA)
 • code Fournisseur : 28972R
 • nom Fournisseur : HEALTHCARE AT HOME NETHERLANDS BV
 • code GEF : 069077J
-• retrocedable : non
-• Conservation  selon RCP : 2</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
+• Rétrocédable : Non
+• Conservation selon PUI : 2°C à 8°C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
         <is>
           <t>givosiran sodique</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>• Désignation produit : GIVLAARI 189 MG/1 ML, SOL INJ, FLAC (TAA)
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Hors TAA</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>• Famille médicament : Hors TAA
+• Désignation produit : GIVLAARI 189 MG/1 ML, SOL INJ, FLAC (TAA)
 • Désignation Service : GIVOSIRAN 189MG/1ML INJ (TAA)*
 • code Fournisseur : 27079J
 • nom Fournisseur : ALNYLAM FRANCE SAS
 • code GEF : 071989Z
-• retrocedable : non
-• Conservation  selon RCP : 0</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+• Rétrocédable : Non
+• Conservation selon PUI : 2°C à 8°C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
         <is>
           <t>glucarpidase</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>• Désignation produit : VORAXAZE 1000UI INJ  (TAA)
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Hors TAA</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>• Famille médicament : Hors TAA
+• Désignation produit : VORAXAZE 1000UI INJ  (TAA)
 • Désignation Service : GLUCARPIDASE 1000UI INJ (TAA)
 • code Fournisseur : 8020S
 • nom Fournisseur : SERB
 • code GEF : 065676M
-• retrocedable : non
-• Conservation  selon RCP : 0</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
+• Rétrocédable : Non
+• Conservation selon PUI : 2°C à 8°C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
         <is>
           <t>icatibant acetate</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>• Désignation produit : ICATIBANT VIA 30MG/3ML SOL INJ SER (TAA)
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Hors TAA</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>• Famille médicament : Hors TAA
+• Désignation produit : ICATIBANT VIA 30MG/3ML SOL INJ SER (TAA)
 • Désignation Service : ICATIBANT 30MG/3ML SER INJ (TAA)
 • code Fournisseur : 6138X
 • nom Fournisseur : MYLAN (SAS)
 • code GEF : 072463O
-• retrocedable : true
-• Conservation  selon RCP : 200</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+• Rétrocédable : Oui
+• Conservation selon PUI : &lt;25°C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
         <is>
           <t>idursulfase</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>• Désignation produit : ELAPRASE 2MG/ML SOL INJ FL 3ML
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Hors TAA</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>• Famille médicament : Hors TAA
+• Désignation produit : ELAPRASE 2MG/ML SOL INJ FL 3ML
 • Désignation Service : IDURSULFASE 2MG/ML INJ (TAA) *TD* * (G)
 • code Fournisseur : 2194K
 • nom Fournisseur : C.S.P.
 • code GEF : 066545G
-• retrocedable : non
-• Conservation  selon RCP : 2</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
+• Rétrocédable : Non
+• Conservation selon PUI : 2°C à 8°C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>ig anti thymocyte humain (equine)</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>• Désignation produit : ATGAM 50MG/ML SOL INJ AMP 5ML (TAA)
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Hors TAA</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>• Famille médicament : Hors TAA
+• Désignation produit : ATGAM 50MG/ML SOL INJ AMP 5ML (TAA)
 • Désignation Service : IGANTITHYMOCYTE/EQUIN (ATGAM) 250MG/5ML  INJ AMP(TAA)
 • code Fournisseur : 6942W
 • nom Fournisseur : PFIZER SAS
 • code GEF : 069075G
-• retrocedable : non
-• Conservation  selon RCP : 0</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
+• Rétrocédable : Non
+• Conservation selon PUI : 2°C à 8°C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
         <is>
           <t>imiglucerase</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>• Désignation produit : CEREZYME 400U PDR INJ
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Hors TAA</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>• Famille médicament : Hors TAA
+• Désignation produit : CEREZYME 400U PDR INJ
 • Désignation Service : IMIGLUCERASE 400UI INJ *TD* (TAA) * (G)
 • code Fournisseur : 34079S
 • nom Fournisseur : SANOFI WINTHROP INDUSTRIE
 • code GEF : 216237P
-• retrocedable : true
-• Conservation  selon RCP : 2</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
+• Rétrocédable : Oui
+• Conservation selon PUI : 2°C à 8°C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
         <is>
           <t>inebilizumab</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>• Désignation produit : UPLIZNA 100MG/10ML INJ (TAA)
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Hors TAA</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>• Famille médicament : Hors TAA
+• Désignation produit : UPLIZNA 100MG/10ML INJ (TAA)
 • Désignation Service : INEBILIZUMAB 100MG/10ML INJ  (TAA)
 • code Fournisseur : 2194K
 • nom Fournisseur : C.S.P.
 • code GEF : 072308W
-• retrocedable : non
-• Conservation  selon RCP : 0</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr"/>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+• Rétrocédable : Non
+• Conservation selon PUI : 2°C à 8°C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>infliximab</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Hors TAA</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
         <is>
           <t xml:space="preserve">	Produit 1 :
+• Famille médicament : Hors TAA
 • Désignation produit : REMICADE 100MG PDR INJ FL (TAA)
 • Désignation Service : INFLIXIMAB (REMICADE) 100MG INJ *TD* (TAA) *
 • code Fournisseur : 4998H
 • nom Fournisseur : JANSSEN CILAG
 • code GEF : 200519F
-• retrocedable : non
-• Conservation  selon RCP : 2
+• Rétrocédable : Non
+• Conservation selon PUI : 2°C à 8°C
 	Produit 2 :
+• Famille médicament : Hors TAA
 • Désignation produit : REMSIMA 100MG PDR INJ FL (TAA)
 • Désignation Service : INFLIXIMAB (REMSIMA) 100MG PDR INJ FL (TAA)
 • code Fournisseur : 2825W
 • nom Fournisseur : ALLOGA FRANCE - SIEGE
 • code GEF : 071947D
-• retrocedable : non
-• Conservation  selon RCP : 2</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr">
+• Rétrocédable : Non
+• Conservation selon PUI : 2°C à 8°C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>• NFS : cytopénies
+• sérologie VHB
+• infections en cours</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
         <is>
           <t>• Iris (Groupe 3)
 • Polychondrite Atrophiante (Groupe 3)
@@ -1253,418 +1389,604 @@
 • Vascularite Rétinienne (Groupe 3)</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr"/>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
         <is>
           <t>isavuconazonium sulfate</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>• Désignation produit : CRESEMBA 200 MG, INJ (TAA)
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Hors TAA</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>• Famille médicament : Hors TAA
+• Désignation produit : CRESEMBA 200 MG, INJ (TAA)
 • Désignation Service : ISAVUCONAZOLE 200 MG,  INJ(TAA)
 • code Fournisseur : 6942W
 • nom Fournisseur : PFIZER SAS
 • code GEF : 070461N
-• retrocedable : oui
-• Conservation  selon RCP : 0</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr">
+• Rétrocédable : Oui
+• Conservation selon PUI : 2°C à 8°C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr">
         <is>
           <t>• Ibrutinib (Groupe 3)</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr"/>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
         <is>
           <t>lanadelumab</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>• Désignation produit : TAKHZYRO 300MG/2ML SOL INJ SER (TAA)
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Hors TAA</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>• Famille médicament : Hors TAA
+• Désignation produit : TAKHZYRO 300MG/2ML SOL INJ SER (TAA)
 • Désignation Service : LANADELUMAB 300MG/2ML SOL INJ SER (TAA)
 • code Fournisseur : 2194K
 • nom Fournisseur : C.S.P.
 • code GEF : 072186N
-• retrocedable : non
-• Conservation  selon RCP : 0</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr"/>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
+• Rétrocédable : Non
+• Conservation selon PUI : 2°C à 8°C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
         <is>
           <t>laronidase</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>• Désignation produit : ALDURAZYME 100U/ML SOL INJ FL 5ML (TAA)
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Hors TAA</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>• Famille médicament : Hors TAA
+• Désignation produit : ALDURAZYME 100U/ML SOL INJ FL 5ML (TAA)
 • Désignation Service : ALDURAZYME 100U/ML SOL INJ FL 5ML (TAA)
 • code Fournisseur : 34079S
 • nom Fournisseur : SANOFI WINTHROP INDUSTRIE
 • code GEF : 069023A
-• retrocedable : non
-• Conservation  selon RCP : 0</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr"/>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
+• Rétrocédable : Non
+• Conservation selon PUI : 2°C à 8°C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>• ci grossesse</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
         <is>
           <t>lumasiran sodique</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>• Désignation produit : OXLUMO 94.5 MG/0.5 ML, SOL INJ, FLAC (TAA)
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Hors TAA</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>• Famille médicament : Hors TAA
+• Désignation produit : OXLUMO 94.5 MG/0.5 ML, SOL INJ, FLAC (TAA)
 • Désignation Service : LUMASIRAN 94.5 MG/0.5 ML, SOL INJ, FLAC (TAA)
 • code Fournisseur : 27079J
 • nom Fournisseur : ALNYLAM FRANCE SAS
 • code GEF : 071878D
-• retrocedable : non
-• Conservation  selon RCP : 0</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr"/>
-      <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr"/>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
+• Rétrocédable : Non
+• Conservation selon PUI : &lt;25°C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
         <is>
           <t>meropenem trihydrate,vaborbactam</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>• Désignation produit : VABOREM 1G/1G PDR INJ FL (TAA)
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Hors TAA</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>• Famille médicament : Hors TAA
+• Désignation produit : VABOREM 1G/1G PDR INJ FL (TAA)
 • Désignation Service : MEROPENEM/VABORBACTAM 1G/1G PDR INJ FL (TAA)
 • code Fournisseur : 2825W
 • nom Fournisseur : ALLOGA FRANCE - SIEGE
 • code GEF : 071826X
-• retrocedable : non
-• Conservation  selon RCP : 0</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr"/>
-      <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr"/>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
+• Rétrocédable : Non
+• Conservation selon PUI : &lt;25°C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
         <is>
           <t>micafungine sodique</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Hors TAA</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
         <is>
           <t xml:space="preserve">	Produit 1 :
+• Famille médicament : Hors TAA
 • Désignation produit : MICAFUNGINE MYL 100MG PDR INJ FL (TAA)
 • Désignation Service : MICAFUNGINE MYL 100MG PDR INJ FL (TAA)
 • code Fournisseur : 6138X
 • nom Fournisseur : MYLAN (SAS)
 • code GEF : 071843P
-• retrocedable : true
-• Conservation  selon RCP : 1
+• Rétrocédable : Oui
+• Conservation selon PUI : &lt;25°C
 	Produit 2 :
+• Famille médicament : Hors TAA
 • Désignation produit : MICAFUNGINE MYL 50MG PDR INJ FL (TAA)
 • Désignation Service : MICAFUNGINE MYL 50MG PDR INJ FL (TAA)
 • code Fournisseur : 6138X
 • nom Fournisseur : MYLAN (SAS)
 • code GEF : 071842O
-• retrocedable : true
-• Conservation  selon RCP : 1
+• Rétrocédable : Oui
+• Conservation selon PUI : &lt;25°C
 	Produit 3 :
+• Famille médicament : Hors TAA
 • Désignation produit : MICAFUNGINE REI 50MG PDR INJ FL (TAA)
 • Désignation Service : MICAFUNGINE REI 50MG PDR INJ FL (TAA)
 • code Fournisseur : 2825W
 • nom Fournisseur : ALLOGA FRANCE - SIEGE
 • code GEF : 072941J
-• retrocedable : true
-• Conservation  selon RCP : 1</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr"/>
-      <c r="D38" t="inlineStr">
+• Rétrocédable : Oui
+• Conservation selon PUI : &lt;25°C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr">
         <is>
           <t>• Transplantation Hépatique (Groupe 3)</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr"/>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
         <is>
           <t>natalizumab</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Hors TAA</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
         <is>
           <t xml:space="preserve">	Produit 1 :
+• Famille médicament : Hors TAA
 • Désignation produit : TYRUKO 300MG/15ML SOL INJ FL (TAA)
 • Désignation Service : NATALIZUMAB BIOSIMILAIRE 300MG/15ML SOL INJ FL (TAA)
 • code Fournisseur : 7840X
 • nom Fournisseur : SANDOZ (SARL)-(LABO.)
 • code GEF : 073125J
-• retrocedable : non
-• Conservation  selon RCP : 2
+• Rétrocédable : Non
+• Conservation selon PUI : 2°C à 8°C
 	Produit 2 :
+• Famille médicament : Hors TAA
 • Désignation produit : TYSABRI 150MG/1ML SER INJ SC (TAA)
 • Désignation Service : NATALIZUMAB 150MG/1ML SER INJ SC (TAA)
 • code Fournisseur : 30463M
 • nom Fournisseur : BIOGEN FRANCE SAS
 • code GEF : 072119P
-• retrocedable : non
-• Conservation  selon RCP : 2</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr"/>
-      <c r="D39" t="inlineStr">
+• Rétrocédable : Non
+• Conservation selon PUI : 2°C à 8°C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr">
         <is>
           <t>• Polyradiculonévrite (Groupe 3)</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr"/>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>nusinersen sodique</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>• Désignation produit : SPINRAZA 12 MG/5 ML, SOL INJ, FLAC (TAA)
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Hors TAA</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>• Famille médicament : Hors TAA
+• Désignation produit : SPINRAZA 12 MG/5 ML, SOL INJ, FLAC (TAA)
 • Désignation Service : NUSINERSEN 12 MG/5 ML, SOL INJ, FLAC (TAA)
 • code Fournisseur : 30463M
 • nom Fournisseur : BIOGEN FRANCE SAS
 • code GEF : 070831P
-• retrocedable : non
-• Conservation  selon RCP : 2</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr"/>
-      <c r="D40" t="inlineStr">
+• Rétrocédable : Non
+• Conservation selon PUI : 2°C à 8°C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr">
         <is>
           <t>•  amyotrophie spinal de tout type adulte et enfant (Groupe 3)</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr"/>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
         <is>
           <t>ocrelizumab</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>• Désignation produit : OCREVUS 300 MG/10 ML (TAA)
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Hors TAA</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>• Famille médicament : Hors TAA
+• Désignation produit : OCREVUS 300 MG/10 ML (TAA)
 • Désignation Service : OCRELIZUMAB 300 MG/10 ML (TAA)
 • code Fournisseur : 7590A
 • nom Fournisseur : ROCHE
 • code GEF : 070984G
-• retrocedable : non
-• Conservation  selon RCP : 4</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr"/>
-      <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr"/>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
+• Rétrocédable : Non
+• Conservation selon PUI : 2°C à 8°C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
         <is>
           <t>olipudase alfa</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>• Désignation produit : XENPOZYME 20MG INJ (TAA)
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Hors TAA</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>• Famille médicament : Hors TAA
+• Désignation produit : XENPOZYME 20MG INJ (TAA)
 • Désignation Service : OLIPUDASE 20MG INJ (TAA)
 • code Fournisseur : 34079S
 • nom Fournisseur : SANOFI WINTHROP INDUSTRIE
 • code GEF : 072236S
-• retrocedable : non
-• Conservation  selon RCP : 0</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr"/>
-      <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr"/>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
+• Rétrocédable : Non
+• Conservation selon PUI : 2°C à 8°C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>oritavancine</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Anti infectieux</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>• Famille médicament : Anti infectieux</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
         <is>
           <t>patisiran sodique</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>• Désignation produit : ONPATTRO (PATISIRAN) 10 MG/5 ML,INJ (TAA)
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Hors TAA</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>• Famille médicament : Hors TAA
+• Désignation produit : ONPATTRO (PATISIRAN) 10 MG/5 ML,INJ (TAA)
 • Désignation Service : PATISIRAN 10 MG/5 ML, INJ (TAA)
 • code Fournisseur : 27079J
 • nom Fournisseur : ALNYLAM FRANCE SAS
 • code GEF : 071159X
-• retrocedable : non
-• Conservation  selon RCP : 0</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr"/>
-      <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr"/>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
+• Rétrocédable : Non
+• Conservation selon PUI : 2°C à 8°C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
         <is>
           <t>pegcetacoplan</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>• Désignation produit : ASPAVELI 1080MG/20ML SOL INJ  (TAA)
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Hors TAA</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>• Famille médicament : Hors TAA
+• Désignation produit : ASPAVELI 1080MG/20ML SOL INJ  (TAA)
 • Désignation Service : PEGCETACOPLAN 1080MG/20ML SOL INJ (TAA)
 • code Fournisseur : 57662B
 • nom Fournisseur : SWEDISH ORPHAN BIOVITRUM
 • code GEF : 072238V
-• retrocedable : oui
-• Conservation  selon RCP : 0</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr"/>
-      <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr"/>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
+• Rétrocédable : Oui
+• Conservation selon PUI : 2°C à 8°C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
         <is>
           <t>plerixafor</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>• Désignation produit : MOZOBIL 20MG/ML SOL INJ FL 1,2ML
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Hors TAA</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>• Famille médicament : Hors TAA
+• Désignation produit : MOZOBIL 20MG/ML SOL INJ FL 1,2ML
 • Désignation Service : PLERIXAFOR 24MG/1.2ML INJ (TAA) $
 • code Fournisseur : 34079S
 • nom Fournisseur : SANOFI WINTHROP INDUSTRIE
 • code GEF : 067421J
-• retrocedable : true
-• Conservation  selon RCP : 2</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr"/>
-      <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr"/>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
+• Rétrocédable : Oui
+• Conservation selon PUI : &lt;25°C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
         <is>
           <t>ravulizumab</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Hors TAA</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
         <is>
           <t xml:space="preserve">	Produit 1 :
+• Famille médicament : Hors TAA
 • Désignation produit : ULTOMIRIS 1100MG/11ML  INJ (TAA)
 • Désignation Service : RAVULIZUMAB 1100MG/11ML  INJ (TAA) 
 • code Fournisseur : 57832L
 • nom Fournisseur : ALEXION PHARMA FRANCE
 • code GEF : 072099T
-• retrocedable : non
-• Conservation  selon RCP : 0
+• Rétrocédable : Non
+• Conservation selon PUI : 2°C à 8°C
 	Produit 2 :
+• Famille médicament : Hors TAA
 • Désignation produit : ULTOMIRIS 300MG/3ML SOL INJ FL (TAA)
 • Désignation Service : RAVULIZUMAB 300MG/3ML SOL INJ FL (TAA)
 • code Fournisseur : 57832L
 • nom Fournisseur : ALEXION PHARMA FRANCE
 • code GEF : 072229K
-• retrocedable : non
-• Conservation  selon RCP : 0</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr"/>
-      <c r="D46" t="inlineStr"/>
-      <c r="E46" t="inlineStr"/>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
+• Rétrocédable : Non
+• Conservation selon PUI : 2°C à 8°C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>rezzafungine</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Anti infectieux</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>• Famille médicament : Anti infectieux
+• Désignation produit : Rezzayo
+• Désignation Service : TEST
+• code Fournisseur : TEST
+• nom Fournisseur : TEST
+• code GEF : TEST
+• Rétrocédable : TEST
+• Conservation selon PUI : TEST
+• Conduite à tenir si excursion T° : TEST
+• Fiche : les tests : C:\Users\Sengulen\Documents\GitHub\Thesaurus\Molécule et https://www.has-sante.fr/jcms/p_3538249/fr/emblaveo-aztreonam/avibactam-beta-lactamines-et-inhibiteur-non-beta-lactame-de-beta-lactamase</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>les tests : C:\Users\Sengulen\Documents\GitHub\Thesaurus\Molécule et https://www.has-sante.fr/jcms/p_3538249/fr/emblaveo-aztreonam/avibactam-beta-lactamines-et-inhibiteur-non-beta-lactame-de-beta-lactamase</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
         <is>
           <t>risankizumab</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>• Désignation produit : SKYRIZI 600MG/10ML INJ  (TAA)
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Hors TAA</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>• Famille médicament : Hors TAA
+• Désignation produit : SKYRIZI 600MG/10ML INJ  (TAA)
 • Désignation Service : RISANKIZUMAB 600MG/10ML INJ (TAA)
 • code Fournisseur : 52720E
 • nom Fournisseur : ABBVIE
 • code GEF : 073235D
-• retrocedable : non
-• Conservation  selon RCP : 0</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr"/>
-      <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr"/>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
+• Rétrocédable : Non
+• Conservation selon PUI : 2°C à 8°C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
         <is>
           <t>rituximab</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Hors TAA</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
         <is>
           <t xml:space="preserve">	Produit 1 :
+• Famille médicament : Hors TAA
 • Désignation produit : MABTHERA 100MG/10ML SOL INJ (TAA)
 • Désignation Service : RITUXIMAB 100MG INJ *TD* (TAA) * (G)
 • code Fournisseur : 7590A
 • nom Fournisseur : ROCHE
 • code GEF : 200500K
-• retrocedable : non
-• Conservation  selon RCP : 2
+• Rétrocédable : Non
+• Conservation selon PUI : 2°C à 8°C
 	Produit 2 :
+• Famille médicament : Hors TAA
 • Désignation produit : MABTHERA 1400MG/11,7ML  INJ SC (TAA)
 • Désignation Service : RITUXIMAB 1400MG/11,7ML INJ SC (TAA)
 • code Fournisseur : 7590A
 • nom Fournisseur : ROCHE
 • code GEF : 070194Y
-• retrocedable : non
-• Conservation  selon RCP : 2
+• Rétrocédable : Non
+• Conservation selon PUI : &lt;25°C
 	Produit 3 :
+• Famille médicament : Hors TAA
 • Désignation produit : MABTHERA 500MG/50ML SOL INJ (TAA)
 • Désignation Service : RITUXIMAB 500MG INJ *TD* (TAA) * (G)
 • code Fournisseur : 7590A
 • nom Fournisseur : ROCHE
 • code GEF : 200501L
-• retrocedable : non
-• Conservation  selon RCP : 2
+• Rétrocédable : Non
+• Conservation selon PUI : 2°C à 8°C
 	Produit 4 :
+• Famille médicament : Hors TAA
 • Désignation produit : RIXATHON 500MG/50ML SOL INJ FL (TAA)
 • Désignation Service : RITUXIMAB (RIXATHON) 500MG/50ML SOL INJ FL (TAA)
 • code Fournisseur : 7840X
 • nom Fournisseur : SANDOZ (SARL)-(LABO.)
 • code GEF : 071997H
-• retrocedable : non
-• Conservation  selon RCP : 2</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr"/>
-      <c r="D48" t="inlineStr">
+• Rétrocédable : Non
+• Conservation selon PUI : 2°C à 8°C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>• NFS: cytopénies
+• contraception efficace
+• sérologies
+• infections en cours
+• radiographie pulmonaire</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
         <is>
           <t>• Ahai (Groupe 3)
 • Ahai Chez L'Enfant (Groupe 3)
@@ -1732,93 +2054,100 @@
 • Statin-Induced Anti-Hmgcr Antibody-Related Immune-Mediated Necrotising Myositis Achieving Complete Remission (Groupe 3)</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr"/>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>samarium 153 lexidronam pentasodique</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>• Désignation produit : QUADRAMET SM153 /   37MBQ (  1MCI) TAA
-• Désignation Service : QUADRAMET SM153 /   37MBQ (  1MCI) TAA
-• code GEF : 228392C
-• retrocedable : non
-• Conservation  selon RCP : 2</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr"/>
-      <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr"/>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
         <is>
           <t>siltuximab</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Hors TAA</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
         <is>
           <t xml:space="preserve">	Produit 1 :
+• Famille médicament : Hors TAA
 • Désignation produit : SYLVANT 100MG PDR INJ FL (TAA)
 • Désignation Service : SILTUXIMAB 100MG INJ (TAA)
 • code Fournisseur : 6692Z
 • nom Fournisseur : RECORDATI RARE DISEASES
 • code GEF : 070616G
-• retrocedable : non
-• Conservation  selon RCP : 2
+• Rétrocédable : Non
+• Conservation selon PUI : 2°C à 8°C
 	Produit 2 :
+• Famille médicament : Hors TAA
 • Désignation produit : SYLVANT 400MG PDR INJ FL (TAA)
 • Désignation Service : SILTUXIMAB 400MG PDR INJ (TAA)
 • code Fournisseur : 6692Z
 • nom Fournisseur : RECORDATI RARE DISEASES
 • code GEF : 070617H
-• retrocedable : non
-• Conservation  selon RCP : 2</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr"/>
-      <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr"/>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
+• Rétrocédable : Non
+• Conservation selon PUI : 2°C à 8°C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
         <is>
           <t>tocilizumab</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Hors TAA</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
         <is>
           <t xml:space="preserve">	Produit 1 :
+• Famille médicament : Hors TAA
 • Désignation produit : ROACTEMRA 200MG/10ML SOL INJ
 • Désignation Service : TOCILIZUMAB (ROACTEMRA) 200MG/10ML INJ (TAA) *TD*
 • code Fournisseur : 7590A
 • nom Fournisseur : ROCHE
 • code GEF : 066845H
-• retrocedable : non
-• Conservation  selon RCP : 2
+• Rétrocédable : Non
+• Conservation selon PUI : 2°C à 8°C
 	Produit 2 :
+• Famille médicament : Hors TAA
 • Désignation produit : ROACTEMRA 400MG/20ML SOL INJ
 • Désignation Service : TOCILIZUMAB (ROACTEMRA) 400MG/20ML INJ (TAA) *TD* *
 • code Fournisseur : 7590A
 • nom Fournisseur : ROCHE
 • code GEF : 067495O
-• retrocedable : non
-• Conservation  selon RCP : 2
+• Rétrocédable : Non
+• Conservation selon PUI : 2°C à 8°C
 	Produit 3 :
+• Famille médicament : Hors TAA
 • Désignation produit : ROACTEMRA 80MG/4ML SOL INJ
 • Désignation Service : TOCILIZUMAB (ROACTEMRA) 80MG/4ML INJ (TAA) *TD*
 • code Fournisseur : 7590A
 • nom Fournisseur : ROCHE
 • code GEF : 067596Z
-• retrocedable : non
-• Conservation  selon RCP : 2</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr"/>
-      <c r="D51" t="inlineStr">
+• Rétrocédable : Non
+• Conservation selon PUI : 2°C à 8°C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>• contraception efficace
+• transaminases
+• NFS: plaquettes , neutropénie
+• infections en cours
+• sérologie VHB
+• bilan lipidique</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
         <is>
           <t>• Chondrocalcinose À Ppcd (Groupe 3)
 • Encephalite Nmadr (Groupe 3)
@@ -1840,136 +2169,157 @@
 • Horton (Groupe 3)</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr"/>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
         <is>
           <t>ustekinumab</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Hors TAA</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
         <is>
           <t xml:space="preserve">	Produit 1 :
+• Famille médicament : Hors TAA
 • Désignation produit : PYZCHIVA 130MG/26ML SOL INJ FL (TAA)
 • Désignation Service : USTEKINUMAB BIOSIMILAIRE 130MG/26ML SOL INJ FL (TAA) (TD)
 • code Fournisseur : 7840X
 • nom Fournisseur : SANDOZ (SARL)-(LABO.)
 • code GEF : 073127L
-• retrocedable : non
-• Conservation  selon RCP : 2
+• Rétrocédable : Non
+• Conservation selon PUI : 2°C à 8°C
 	Produit 2 :
+• Famille médicament : Hors TAA
 • Désignation produit : STELARA 130 MG/26 ML, INJ (TAA)
 • Désignation Service : USTEKINUMAB 130 MG/26 ML, INJ (TAA)
 • code Fournisseur : 4998H
 • nom Fournisseur : JANSSEN CILAG
 • code GEF : 070867E
-• retrocedable : non
-• Conservation  selon RCP : 2</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr"/>
-      <c r="D52" t="inlineStr">
+• Rétrocédable : Non
+• Conservation selon PUI : 2°C à 8°C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr">
         <is>
           <t>• Crohn (Groupe 3)
 • Gastrite Immunologique (Groupe 3)
 • Pédiatrie (Groupe 3)</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr"/>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
         <is>
           <t>vedolizumab</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>• Désignation produit : ENTYVIO 300 MG INJ(TAA)
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Hors TAA</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>• Famille médicament : Hors TAA
+• Désignation produit : ENTYVIO 300 MG INJ(TAA)
 • Désignation Service : VEDOLIZUMAB 300 MG INJ(TAA)
 • code Fournisseur : 2194K
 • nom Fournisseur : C.S.P.
 • code GEF : 069953L
-• retrocedable : non
-• Conservation  selon RCP : 2</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr"/>
-      <c r="D53" t="inlineStr">
+• Rétrocédable : Non
+• Conservation selon PUI : 2°C à 8°C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr">
         <is>
           <t>• Colite Immuno-Induite Cortico-Résistante (Groupe 3)
 • Colite Lymphocytaire (Groupe 3)
 • Pédiatrie (Groupe 3)</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr"/>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
         <is>
           <t>velmanase alfa</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>• Désignation produit : LAMZEDE 10MG PDR INJ (TAA)
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Hors TAA</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>• Famille médicament : Hors TAA
+• Désignation produit : LAMZEDE 10MG PDR INJ (TAA)
 • Désignation Service : VELMANASE ALFA 10MG PDR INJ (TAA)
 • code Fournisseur : 2308J
 • nom Fournisseur : CHIESI (S.A.)
 • code GEF : 070821E
-• retrocedable : non
-• Conservation  selon RCP : 4</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr"/>
-      <c r="D54" t="inlineStr"/>
-      <c r="E54" t="inlineStr"/>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
+• Rétrocédable : Non
+• Conservation selon PUI : 2°C à 8°C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
         <is>
           <t>voriconazole</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>• Désignation produit : VORICONAZOLE 200 MG INJ (TAA)
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Hors TAA</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>• Famille médicament : Hors TAA
+• Désignation produit : VORICONAZOLE 200 MG INJ (TAA)
 • Désignation Service : VORICONAZOLE ARROW 200MG INJ (TAA)*
 • code Fournisseur : 61130W
 • nom Fournisseur : ARROW GENERIQUE SAS
 • code GEF : 071169H
-• retrocedable : true
-• Conservation  selon RCP : 1</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr"/>
-      <c r="D55" t="inlineStr">
+• Rétrocédable : Oui
+• Conservation selon PUI : &lt;25°C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>• voriconazolémie résiduelle
+• ionogramme 
+• transaminases
+• bilirubine
+• fonction rénale
+• association inducteur inhibiteur enzymatique
+• médicaments allongeants le QT</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
         <is>
           <t>• Inj Intrastomale (Groupe 3)
 • Abpa (Groupe 3)</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr"/>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>yttrium 90 chlorure</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>• Désignation produit : YTRACIS 1,85GBQ/ML FL 2ML(1850MBQ=50MCI) (TAA)
-• Désignation Service : YTTRIUM CHLORURE /1850MBQ (50MCI) YTRACIS (TAA)
-• code GEF : 228567S
-• retrocedable : non
-• Conservation  selon RCP : 2</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr"/>
-      <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr"/>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
